--- a/config_2.9/act_hhl_ty_config.xlsx
+++ b/config_2.9/act_hhl_ty_config.xlsx
@@ -228,10 +228,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_002_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高级核弹*1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -350,6 +346,10 @@
   </si>
   <si>
     <t>高档纯棉浴巾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_003_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +803,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,10 +871,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -900,16 +900,16 @@
         <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -952,7 +952,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>48</v>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>49</v>
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>50</v>
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
@@ -1092,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>52</v>
@@ -1134,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>53</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>47</v>
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>49</v>
@@ -1201,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>50</v>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>54</v>
@@ -1308,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>55</v>
@@ -1529,24 +1529,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,17 +1554,24 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1581,13 +1581,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1599,13 +1599,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/act_hhl_ty_config.xlsx
+++ b/config_2.9/act_hhl_ty_config.xlsx
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,7 +868,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>72</v>
@@ -903,7 +903,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>72</v>
@@ -1523,13 +1523,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,25 +1555,13 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1575,13 +1575,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1593,13 +1593,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/act_hhl_ty_config.xlsx
+++ b/config_2.9/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>line|</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>help_info_cjj</t>
-  </si>
-  <si>
-    <t>ID|</t>
   </si>
   <si>
     <t>award_name|名称</t>
@@ -434,7 +431,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,9 +456,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,9 +469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -802,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -827,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -862,19 +853,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1">
         <v>39</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>65</v>
+      <c r="F2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -897,19 +888,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>65</v>
+      <c r="F3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -932,29 +923,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="18.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21" style="6" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="28.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -969,355 +959,304 @@
       <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="15">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="17">
-        <v>15000</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="B3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="15">
         <v>8000</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="E3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="B4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15">
         <v>5000</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="E4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="15">
         <v>24000</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
-        <v>5</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="B6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15">
         <v>12000</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
-        <v>6</v>
+      <c r="B7" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="17">
+        <v>51</v>
+      </c>
+      <c r="D7" s="15">
         <v>6000</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
-        <v>7</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="15">
         <v>2400</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
-        <v>8</v>
+      <c r="B9" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="17">
+        <v>52</v>
+      </c>
+      <c r="D9" s="15">
         <v>1200</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="10">
-        <v>15000</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="B11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="9">
         <v>8000</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="E11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="B12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="9">
         <v>5000</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="E12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="9">
         <v>24000</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="9">
         <v>12000</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="B15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9">
         <v>6000</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="9">
         <v>2400</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
-        <v>8</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="B17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9">
         <v>1200</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1347,19 +1286,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1370,7 +1309,7 @@
         <v>1000291</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1384,7 +1323,7 @@
         <v>1000292</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1398,7 +1337,7 @@
         <v>1000293</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1412,7 +1351,7 @@
         <v>1000294</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1426,7 +1365,7 @@
         <v>1000295</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1440,7 +1379,7 @@
         <v>1000296</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1454,7 +1393,7 @@
         <v>1000297</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1468,7 +1407,7 @@
         <v>1000298</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1523,6 +1462,47 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1533,79 +1513,38 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>